--- a/data_excel/614.xlsx
+++ b/data_excel/614.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>有</t>
   </si>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +553,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -712,8 +716,8 @@
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>17</v>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
